--- a/NEET_2024_Excel/Individual_Excel/122905.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/122905.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3427,39 +3427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="C179" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="C180" t="s">
-        <v>5</v>
-      </c>
-      <c r="D180" t="s">
-        <v>6</v>
-      </c>
-      <c r="E180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
